--- a/SupplementaryTables.xlsx
+++ b/SupplementaryTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/liuqiao_stanford_edu/Documents/Cloud/Mypapers/colleboration/wanwen/DeepDrug/BIB/Revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vio/Desktop/deepdrug/paper/manuscripts/4th/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{510FE37F-FE6E-4C47-AC95-27135B53765E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93C040B5-A71B-D54B-ABB8-53E84390F6B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1438C4AC-B839-194E-B4C6-6A0274F25D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="840" windowWidth="26740" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{CB2CA9DB-FA02-F345-9128-24DFFEF7D606}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{CB2CA9DB-FA02-F345-9128-24DFFEF7D606}"/>
   </bookViews>
   <sheets>
     <sheet name="supp.Tab 1" sheetId="4" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -174,9 +172,6 @@
     <t>AttentionDDI</t>
   </si>
   <si>
-    <t>Drugbank(multi-class)</t>
-  </si>
-  <si>
     <t>DeepDrug</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -528,10 +523,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TwoSides(multi-class, 963 classes)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NDD_DS2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -539,27 +530,6 @@
     <t xml:space="preserve"> Number 
 of GCN layers (for drug channel)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Supplementary Table 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>. Benchmarking of DeepDrug on drug-drug interaction (DDI) tasks.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1064,20 +1034,48 @@
       <t xml:space="preserve"> Predicted potential drugs for SAS-CoV-2.</t>
     </r>
   </si>
+  <si>
+    <t>Drugbank(multi-class, 86 classes)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Supplementary Table 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. Benchmarking of DeepDrug on binary drug-drug interaction (DDI) tasks.</t>
+    </r>
+  </si>
+  <si>
+    <t>TwoSides(multi-label, 963 classes)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000_ "/>
-    <numFmt numFmtId="165" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1089,7 +1087,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1111,7 +1109,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1124,7 +1122,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1139,7 +1137,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1288,34 +1286,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,10 +1325,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,7 +1337,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,13 +1346,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1363,13 +1361,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1387,7 +1385,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1399,7 +1397,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1441,25 +1439,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1486,7 +1484,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1499,7 +1497,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1515,6 +1513,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1539,6 +1540,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,31 +1570,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,13 +1603,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1624,7 +1622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1922,11 +1920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC2133F-2095-2A45-9E61-517033EF3013}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="7" style="10" bestFit="1" customWidth="1"/>
@@ -1974,85 +1972,85 @@
     <col min="44" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="102" customFormat="1">
+      <c r="A1" s="102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="43"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="105" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="105" t="s">
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106" t="s">
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="105" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="104" t="s">
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="103" t="s">
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104" t="s">
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="105" t="s">
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="102" t="s">
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="103" t="s">
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="102" t="s">
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="103" t="s">
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+    </row>
+    <row r="3" spans="1:43">
       <c r="B3" s="71" t="s">
         <v>13</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
@@ -2311,7 +2309,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43">
       <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" ht="15" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2704,9 +2702,9 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B8" s="18">
         <v>0.80500000000000005</v>
@@ -2835,9 +2833,9 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="A9" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="29">
         <v>0.84099999999999997</v>
@@ -2966,9 +2964,9 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B10" s="18">
         <v>0.89600000000000002</v>
@@ -3097,7 +3095,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -3228,9 +3226,9 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="28">
         <v>0.92200000000000004</v>
@@ -3359,7 +3357,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" ht="15" customHeight="1">
       <c r="A13" s="43"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -3404,20 +3402,20 @@
       <c r="AP13" s="48"/>
       <c r="AQ13" s="48"/>
     </row>
-    <row r="14" spans="1:43" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="S14" s="13"/>
       <c r="AN14" s="12"/>
       <c r="AO14" s="12"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
     </row>
-    <row r="15" spans="1:43" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:43" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="A17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -3461,7 +3459,7 @@
       <c r="AP17" s="11"/>
       <c r="AQ17" s="11"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -3506,7 +3504,7 @@
       <c r="AP18" s="11"/>
       <c r="AQ18" s="11"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3551,7 +3549,7 @@
       <c r="AP19" s="11"/>
       <c r="AQ19" s="11"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3596,7 +3594,7 @@
       <c r="AP20" s="11"/>
       <c r="AQ20" s="11"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3641,7 +3639,7 @@
       <c r="AP21" s="11"/>
       <c r="AQ21" s="11"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3686,8 +3684,8 @@
       <c r="AP22" s="11"/>
       <c r="AQ22" s="11"/>
     </row>
-    <row r="23" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" s="11" customFormat="1"/>
+    <row r="24" spans="1:43">
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -3730,20 +3728,20 @@
       <c r="AP24" s="11"/>
       <c r="AQ24" s="11"/>
     </row>
-    <row r="25" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" s="11" customFormat="1"/>
+    <row r="26" spans="1:43" s="11" customFormat="1"/>
+    <row r="27" spans="1:43" s="11" customFormat="1"/>
+    <row r="28" spans="1:43" s="11" customFormat="1"/>
+    <row r="29" spans="1:43" s="11" customFormat="1"/>
+    <row r="30" spans="1:43" s="11" customFormat="1"/>
+    <row r="31" spans="1:43" s="11" customFormat="1"/>
+    <row r="32" spans="1:43" s="11" customFormat="1"/>
+    <row r="33" spans="1:16" s="11" customFormat="1"/>
+    <row r="34" spans="1:16" s="11" customFormat="1"/>
+    <row r="36" spans="1:16">
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -3753,7 +3751,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -3765,11 +3763,11 @@
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="E40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -3783,7 +3781,7 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -3796,7 +3794,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -3842,7 +3840,7 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="18" bestFit="1" customWidth="1"/>
@@ -3852,40 +3850,40 @@
     <col min="6" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
+    <row r="1" spans="1:5" s="109" customFormat="1">
+      <c r="A1" s="109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" ht="31" customHeight="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="105"/>
-    </row>
-    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="122"/>
-      <c r="B3" s="48" t="s">
-        <v>132</v>
-      </c>
       <c r="C3" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="35">
         <v>1</v>
       </c>
@@ -3902,7 +3900,7 @@
         <v>0.81481499999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -3919,7 +3917,7 @@
         <v>0.86792499999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -3936,7 +3934,7 @@
         <v>0.55555600000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -3953,7 +3951,7 @@
         <v>0.84506999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -3970,7 +3968,7 @@
         <v>0.46808499999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -3987,7 +3985,7 @@
         <v>0.41873300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -4004,7 +4002,7 @@
         <v>0.63636400000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>0.77966100000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="15">
         <v>9</v>
       </c>
@@ -4038,7 +4036,7 @@
         <v>0.55555600000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="15">
         <v>10</v>
       </c>
@@ -4055,7 +4053,7 @@
         <v>0.68634700000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="15">
         <v>11</v>
       </c>
@@ -4072,7 +4070,7 @@
         <v>0.373832</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="15">
         <v>12</v>
       </c>
@@ -4089,9 +4087,9 @@
         <v>0.45283000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="44">
         <f>AVERAGE(B4:B15)</f>
@@ -4110,7 +4108,7 @@
         <v>0.62123116666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
@@ -4138,7 +4136,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -4149,35 +4147,35 @@
     <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="109" customFormat="1">
+      <c r="A1" s="109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="18" customFormat="1" ht="34" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" s="18" customFormat="1">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -4188,7 +4186,7 @@
         <v>0.70588200000000001</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3" s="26">
         <v>0.99997100000000005</v>
@@ -4197,10 +4195,10 @@
         <v>0.57142899999999996</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -4211,7 +4209,7 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="26">
         <v>0.92387399999999997</v>
@@ -4220,10 +4218,10 @@
         <v>0.78571400000000002</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="18" customFormat="1">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -4234,7 +4232,7 @@
         <v>0.78048799999999996</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="26">
         <v>0.90366199999999997</v>
@@ -4243,10 +4241,10 @@
         <v>0.52830200000000005</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="18" customFormat="1">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -4257,7 +4255,7 @@
         <v>0.9375</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="26">
         <v>0.89322100000000004</v>
@@ -4266,10 +4264,10 @@
         <v>0.88095199999999996</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="18" customFormat="1">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -4280,7 +4278,7 @@
         <v>0.88888900000000004</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="26">
         <v>0.81823999999999997</v>
@@ -4289,10 +4287,10 @@
         <v>0.82051300000000005</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="18" customFormat="1">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -4303,7 +4301,7 @@
         <v>0.89156599999999997</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="26">
         <v>0.81387100000000001</v>
@@ -4312,10 +4310,10 @@
         <v>0.72195100000000001</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="18" customFormat="1">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -4326,7 +4324,7 @@
         <v>0.30188700000000002</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="26">
         <v>0.62190699999999999</v>
@@ -4335,10 +4333,10 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="18" customFormat="1">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -4349,7 +4347,7 @@
         <v>0.80357100000000004</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="26">
         <v>0.574461</v>
@@ -4358,10 +4356,10 @@
         <v>0.23851600000000001</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="18" customFormat="1">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -4372,7 +4370,7 @@
         <v>0.63529400000000003</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="26">
         <v>0.48210799999999998</v>
@@ -4381,10 +4379,10 @@
         <v>0.44811299999999998</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -4395,7 +4393,7 @@
         <v>0.70349899999999999</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="26">
         <v>0.36531000000000002</v>
@@ -4404,10 +4402,10 @@
         <v>0.51838899999999999</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="18" customFormat="1">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -4418,7 +4416,7 @@
         <v>0.51209099999999996</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="26">
         <v>0.30843599999999999</v>
@@ -4427,10 +4425,10 @@
         <v>0.33931800000000001</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="18" customFormat="1">
       <c r="A14" s="15">
         <v>12</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>0.26717299999999999</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="26">
         <v>0.23996100000000001</v>
@@ -4450,10 +4448,10 @@
         <v>0.20799400000000001</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="18" customFormat="1">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -4464,7 +4462,7 @@
         <v>0.284138</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="26">
         <v>0.222242</v>
@@ -4473,10 +4471,10 @@
         <v>0.428346</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="18" customFormat="1">
       <c r="A16" s="15">
         <v>14</v>
       </c>
@@ -4487,7 +4485,7 @@
         <v>0.22009600000000001</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="26">
         <v>0.13347000000000001</v>
@@ -4496,10 +4494,10 @@
         <v>0.37846200000000002</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="18" customFormat="1">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -4510,7 +4508,7 @@
         <v>0.38383800000000001</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="26">
         <v>-1.7639999999999999E-3</v>
@@ -4519,10 +4517,10 @@
         <v>0.26464100000000002</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="18" customFormat="1">
       <c r="A18" s="98">
         <v>16</v>
       </c>
@@ -4533,7 +4531,7 @@
         <v>0.22264200000000001</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="51">
         <v>-7.8098000000000001E-2</v>
@@ -4542,12 +4540,12 @@
         <v>0.24074100000000001</v>
       </c>
       <c r="G18" s="97" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="18" customFormat="1">
       <c r="A19" s="97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="51">
         <f>AVERAGE(B3:B18)</f>
@@ -4586,253 +4584,254 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+    <row r="1" spans="1:2" s="109" customFormat="1">
+      <c r="A1" s="109" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="A2" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1">
+      <c r="A3" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="130" t="s">
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1">
+      <c r="A4" s="18" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="18" t="s">
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1">
+      <c r="A5" s="18" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="18" t="s">
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1">
+      <c r="A6" s="18" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="B6" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1">
+      <c r="A7" s="18" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="B7" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="18" t="s">
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="B8" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1">
+      <c r="A9" s="18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="B9" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="18" t="s">
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1">
+      <c r="A10" s="18" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="B10" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1">
+      <c r="A11" s="18" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="18" t="s">
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1">
+      <c r="A12" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="18" t="s">
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1">
+      <c r="A13" s="18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="B13" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="18" t="s">
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1">
+      <c r="A14" s="18" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="B14" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="18" t="s">
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1">
+      <c r="A15" s="18" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="B15" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="18" t="s">
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1">
+      <c r="A16" s="18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="18" t="s">
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1">
+      <c r="A17" s="18" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="18" t="s">
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="18" t="s">
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1">
+      <c r="A19" s="18" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="B19" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="18" t="s">
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1">
+      <c r="A20" s="18" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="18" t="s">
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1">
+      <c r="A21" s="18" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="18" t="s">
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1">
+      <c r="A22" s="18" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="18" t="s">
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1">
+      <c r="A23" s="18" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="18" t="s">
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1">
+      <c r="A24" s="18" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="B24" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="18" t="s">
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1">
+      <c r="A25" s="18" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B24" s="18" t="s">
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1">
+      <c r="A26" s="18" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="B26" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="18" t="s">
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1">
+      <c r="A27" s="18" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="B27" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="18" t="s">
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1">
+      <c r="A28" s="18" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="B28" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="18" t="s">
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1">
+      <c r="A29" s="18" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="B29" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="18" t="s">
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1">
+      <c r="A30" s="100" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="B30" s="100" t="s">
         <v>228</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4846,7 +4845,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="9" bestFit="1" customWidth="1"/>
@@ -4856,366 +4855,366 @@
     <col min="6" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="130" customFormat="1">
+      <c r="A1" s="130" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="C2" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="D2" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="E2" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="49">
         <v>8.6475559999999998</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="49">
         <v>8.5902060000000002</v>
       </c>
       <c r="E4" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="49">
         <v>8.5514759999999992</v>
       </c>
       <c r="E5" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="49">
         <v>8.3943589999999997</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="49">
         <v>8.2692119999999996</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="49">
         <v>8.2364390000000007</v>
       </c>
       <c r="E8" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="49">
         <v>8.1029110000000006</v>
       </c>
       <c r="E9" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="49">
         <v>8.0240179999999999</v>
       </c>
       <c r="E10" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="49">
         <v>8.0238999999999994</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="C12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="49">
         <v>8.0224910000000005</v>
       </c>
       <c r="E12" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="49">
         <v>7.9859210000000003</v>
       </c>
       <c r="E13" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="C14" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="49">
         <v>7.9683679999999999</v>
       </c>
       <c r="E14" s="53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="C15" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="49">
         <v>7.9374140000000004</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="C16" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="49">
         <v>7.9201180000000004</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>110</v>
-      </c>
       <c r="C17" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="49">
         <v>7.9096349999999997</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="49">
         <v>7.8958000000000004</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="C19" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="49">
         <v>7.8954760000000004</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="C20" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="49">
         <v>7.8945639999999999</v>
       </c>
       <c r="E20" s="53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>119</v>
-      </c>
       <c r="C21" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="49">
         <v>7.8933169999999997</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>121</v>
-      </c>
       <c r="C22" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="57">
         <v>7.8916649999999997</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5239,39 +5238,39 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="109" customFormat="1">
+      <c r="A1" s="109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="43"/>
-      <c r="B2" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="18"/>
       <c r="B3" s="48" t="s">
         <v>13</v>
@@ -5301,9 +5300,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="44">
         <v>0.21</v>
@@ -5333,7 +5332,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -5365,9 +5364,9 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="45">
         <v>0.29199999999999998</v>
@@ -5397,32 +5396,32 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="28" customHeight="1">
+      <c r="A8" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -5431,22 +5430,22 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="18"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="18"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="18"/>
     </row>
   </sheetData>
@@ -5467,11 +5466,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F08703-C5AC-BD4B-9B5B-139967E2AD74}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="18" bestFit="1" customWidth="1"/>
@@ -5490,41 +5489,41 @@
     <col min="15" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+    <row r="1" spans="1:14" s="109" customFormat="1">
+      <c r="A1" s="109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103" t="s">
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="112" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="115"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="31" customHeight="1">
+      <c r="A3" s="113"/>
       <c r="B3" s="55" t="s">
         <v>13</v>
       </c>
@@ -5561,9 +5560,9 @@
       <c r="M3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="118"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="116"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="84" t="s">
         <v>20</v>
       </c>
@@ -5603,13 +5602,13 @@
       <c r="M4" s="24">
         <v>0.125</v>
       </c>
-      <c r="N4" s="117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="99">
         <v>0.26100000000000001</v>
@@ -5647,9 +5646,9 @@
       <c r="M5" s="37">
         <v>0.13500000000000001</v>
       </c>
-      <c r="N5" s="118"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="116"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="69" t="s">
         <v>20</v>
       </c>
@@ -5689,13 +5688,13 @@
       <c r="M6" s="18">
         <v>0.29299999999999998</v>
       </c>
-      <c r="N6" s="117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="99">
         <v>0.504</v>
@@ -5733,18 +5732,18 @@
       <c r="M7" s="87">
         <v>0.33500000000000002</v>
       </c>
-      <c r="N7" s="118"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="116"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="69"/>
-      <c r="H8" s="113"/>
+      <c r="H8" s="110"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="96"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="88"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -5752,14 +5751,14 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="113"/>
+      <c r="H9" s="110"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="94"/>
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
@@ -5774,7 +5773,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -5783,7 +5782,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5792,7 +5791,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5801,13 +5800,13 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="6"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="6"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5815,7 +5814,7 @@
       <c r="L17"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="6"/>
       <c r="B18" s="92"/>
       <c r="C18" s="92"/>
@@ -5826,7 +5825,7 @@
       <c r="L18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="93"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5834,7 +5833,7 @@
       <c r="L19"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="6"/>
       <c r="B20" s="15"/>
       <c r="C20"/>
@@ -5849,7 +5848,7 @@
       <c r="L20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="6"/>
       <c r="B21" s="15"/>
       <c r="C21"/>
@@ -5864,7 +5863,7 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="6"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -5878,7 +5877,7 @@
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="6"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -5892,7 +5891,7 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5907,7 +5906,7 @@
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -5922,7 +5921,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="6"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
@@ -5937,7 +5936,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -5952,7 +5951,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -5967,7 +5966,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -5982,7 +5981,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -5997,7 +5996,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="6"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
@@ -6012,7 +6011,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6027,7 +6026,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -6069,36 +6068,36 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.1640625" style="14" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="119" customFormat="1">
+      <c r="A1" s="119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="42"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
@@ -6141,13 +6140,13 @@
         <v>0.65</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="25">
         <v>0.53500000000000003</v>
@@ -6159,7 +6158,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
@@ -6173,13 +6172,13 @@
         <v>0.77</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="25">
         <v>0.63600000000000001</v>
@@ -6191,7 +6190,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -6237,13 +6236,13 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="25">
         <v>0.39</v>
@@ -6255,7 +6254,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
@@ -6269,13 +6268,13 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="25">
         <v>0.52700000000000002</v>
@@ -6287,7 +6286,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
@@ -6319,9 +6318,9 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="41">
         <v>0.73</v>
@@ -6351,33 +6350,33 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="21" customFormat="1">
+      <c r="A12" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -6389,7 +6388,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -6399,7 +6398,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="23"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -6412,7 +6411,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -6425,7 +6424,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -6437,7 +6436,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -6449,7 +6448,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="23"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -6459,7 +6458,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -6494,7 +6493,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="10" bestFit="1" customWidth="1"/>
@@ -6510,48 +6509,48 @@
     <col min="17" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="102" customFormat="1">
+      <c r="A1" s="102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="35"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112" t="s">
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-    </row>
-    <row r="3" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+    </row>
+    <row r="3" spans="1:16" ht="35" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="67" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="68" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>50</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>7</v>
@@ -6563,10 +6562,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="67" t="s">
         <v>7</v>
@@ -6578,16 +6577,16 @@
         <v>4</v>
       </c>
       <c r="N3" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O3" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3" s="67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -6787,9 +6786,9 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="37">
         <v>0.2</v>
@@ -6837,24 +6836,24 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:12">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:12">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:12">
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:12">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:12">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
@@ -6879,7 +6878,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="5" bestFit="1" customWidth="1"/>
@@ -6899,31 +6898,31 @@
     <col min="19" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112" t="s">
+    <row r="1" spans="1:18" s="109" customFormat="1">
+      <c r="A1" s="109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="117" t="s">
-        <v>150</v>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="115" t="s">
+        <v>147</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -6932,8 +6931,8 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="115"/>
+    <row r="3" spans="1:18" ht="31" customHeight="1">
+      <c r="A3" s="113"/>
       <c r="B3" s="67" t="s">
         <v>3</v>
       </c>
@@ -6941,10 +6940,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>7</v>
@@ -6956,15 +6955,15 @@
         <v>4</v>
       </c>
       <c r="I3" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="118"/>
+      <c r="L3" s="116"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -6972,7 +6971,7 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="84" t="s">
         <v>20</v>
       </c>
@@ -7006,8 +7005,8 @@
       <c r="K4" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L4" s="117" t="s">
-        <v>146</v>
+      <c r="L4" s="115" t="s">
+        <v>143</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -7016,9 +7015,9 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="40">
         <v>0.56299999999999994</v>
@@ -7050,7 +7049,7 @@
       <c r="K5" s="37">
         <v>0.2</v>
       </c>
-      <c r="L5" s="118"/>
+      <c r="L5" s="116"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -7058,7 +7057,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="69" t="s">
         <v>20</v>
       </c>
@@ -7092,8 +7091,8 @@
       <c r="K6" s="18">
         <v>0.255</v>
       </c>
-      <c r="L6" s="117" t="s">
-        <v>147</v>
+      <c r="L6" s="115" t="s">
+        <v>144</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -7102,9 +7101,9 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="87">
         <v>0.45200000000000001</v>
@@ -7136,7 +7135,7 @@
       <c r="K7" s="87">
         <v>0.312</v>
       </c>
-      <c r="L7" s="118"/>
+      <c r="L7" s="116"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -7144,7 +7143,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="69" t="s">
         <v>20</v>
       </c>
@@ -7178,8 +7177,8 @@
       <c r="K8" s="86">
         <v>0.56200000000000006</v>
       </c>
-      <c r="L8" s="113" t="s">
-        <v>148</v>
+      <c r="L8" s="110" t="s">
+        <v>145</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -7188,9 +7187,9 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="87">
         <v>0.34599999999999997</v>
@@ -7222,7 +7221,7 @@
       <c r="K9" s="36">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L9" s="118"/>
+      <c r="L9" s="116"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
@@ -7230,7 +7229,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -7250,7 +7249,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -7270,7 +7269,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -7280,7 +7279,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -7298,7 +7297,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7318,7 +7317,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7338,7 +7337,7 @@
       <c r="Q15"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="6"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -7346,7 +7345,7 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="6"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -7363,7 +7362,7 @@
       <c r="Q17"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="6"/>
       <c r="B18" s="92"/>
       <c r="C18" s="92"/>
@@ -7380,7 +7379,7 @@
       <c r="Q18"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="93"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -7397,7 +7396,7 @@
       <c r="Q19"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="6"/>
       <c r="B20" s="15"/>
       <c r="C20"/>
@@ -7417,7 +7416,7 @@
       <c r="Q20"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="6"/>
       <c r="B21" s="15"/>
       <c r="C21"/>
@@ -7437,7 +7436,7 @@
       <c r="Q21"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="6"/>
       <c r="B22" s="18"/>
       <c r="C22"/>
@@ -7457,7 +7456,7 @@
       <c r="Q22"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="6"/>
       <c r="B23" s="18"/>
       <c r="C23"/>
@@ -7477,7 +7476,7 @@
       <c r="Q23"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -7497,7 +7496,7 @@
       <c r="Q24"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7517,7 +7516,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="6"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
@@ -7537,7 +7536,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -7557,7 +7556,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -7577,7 +7576,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -7597,7 +7596,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -7617,7 +7616,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="6"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
@@ -7637,7 +7636,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -7657,7 +7656,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -7677,7 +7676,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -7713,7 +7712,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
@@ -7735,44 +7734,44 @@
     <col min="21" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="119" customFormat="1">
+      <c r="A1" s="119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="18" customFormat="1">
       <c r="A2" s="44"/>
-      <c r="B2" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119" t="s">
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119" t="s">
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-    </row>
-    <row r="3" spans="1:20" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+    </row>
+    <row r="3" spans="1:20" s="18" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="46" t="s">
         <v>13</v>
@@ -7808,10 +7807,10 @@
         <v>4</v>
       </c>
       <c r="M3" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3" s="61" t="s">
         <v>7</v>
@@ -7823,18 +7822,18 @@
         <v>4</v>
       </c>
       <c r="R3" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S3" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T3" s="61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="18" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" s="44">
         <v>0.83799999999999997</v>
@@ -7894,9 +7893,9 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="18" customFormat="1">
       <c r="A5" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="26">
         <v>0.84099999999999997</v>
@@ -7956,9 +7955,9 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="18" customFormat="1">
       <c r="A6" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="26">
         <v>0.84299999999999997</v>
@@ -8018,7 +8017,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="18" customFormat="1">
       <c r="A7" s="43"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -8040,12 +8039,12 @@
       <c r="S7" s="43"/>
       <c r="T7" s="43"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -8071,40 +8070,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCAB8E9-3D7E-EF48-8810-B4DC5E712D70}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="119" customFormat="1">
+      <c r="A1" s="119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="18" customFormat="1">
       <c r="A2" s="44"/>
-      <c r="B2" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-    </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+    </row>
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="29"/>
       <c r="B3" s="90" t="s">
         <v>13</v>
@@ -8134,9 +8133,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="18" customFormat="1">
       <c r="A4" s="28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" s="44">
         <v>0.81100000000000005</v>
@@ -8167,9 +8166,9 @@
       </c>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="18" customFormat="1">
       <c r="A5" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" s="29">
         <v>0.83799999999999997</v>
@@ -8199,9 +8198,9 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="18" customFormat="1">
       <c r="A6" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="29">
         <v>0.84099999999999997</v>
@@ -8231,9 +8230,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="18" customFormat="1">
       <c r="A7" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="45">
         <v>0.84299999999999997</v>
@@ -8284,7 +8283,7 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
@@ -8300,45 +8299,45 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="122" customFormat="1">
+      <c r="A1" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="18"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="119" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="119" t="s">
+      <c r="C2" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="36"/>
       <c r="B3" s="51"/>
       <c r="C3" s="75" t="s">
@@ -8375,9 +8374,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="122" t="s">
-        <v>134</v>
+    <row r="4" spans="1:13">
+      <c r="A4" s="123" t="s">
+        <v>133</v>
       </c>
       <c r="B4" s="62">
         <v>32</v>
@@ -8416,8 +8415,8 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="124"/>
       <c r="B5" s="62">
         <v>64</v>
       </c>
@@ -8455,10 +8454,10 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="124"/>
       <c r="B6" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="78">
         <v>0.88800000000000001</v>
@@ -8494,8 +8493,8 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="124"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="125"/>
       <c r="B7" s="63">
         <v>256</v>
       </c>
@@ -8533,12 +8532,12 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="125" t="s">
-        <v>135</v>
+    <row r="8" spans="1:13">
+      <c r="A8" s="126" t="s">
+        <v>134</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="78">
         <v>0.86199999999999999</v>
@@ -8574,10 +8573,10 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="126"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="127"/>
       <c r="B9" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="78">
         <v>0.86499999999999999</v>
@@ -8613,10 +8612,10 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="128"/>
       <c r="B10" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="80">
         <v>0.88800000000000001</v>
@@ -8652,9 +8651,9 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="122" t="s">
-        <v>141</v>
+    <row r="11" spans="1:13">
+      <c r="A11" s="123" t="s">
+        <v>139</v>
       </c>
       <c r="B11" s="62">
         <v>6</v>
@@ -8693,8 +8692,8 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="124"/>
       <c r="B12" s="62">
         <v>12</v>
       </c>
@@ -8732,8 +8731,8 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="123"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="124"/>
       <c r="B13" s="62">
         <v>18</v>
       </c>
@@ -8771,10 +8770,10 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="124"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="125"/>
       <c r="B14" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="80">
         <v>0.88800000000000001</v>
@@ -8810,31 +8809,31 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="82"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="B16" s="82"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="82"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="82"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="82"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="82"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="82"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="82"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="82"/>
     </row>
   </sheetData>
